--- a/sprint_ressources/sprint0/Anwendungsfallbeschreibungen.xlsx
+++ b/sprint_ressources/sprint0/Anwendungsfallbeschreibungen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\Studium\04 Faecher\10 Software Engineering\01 SE1\03 Praktikum\skillproject-di-3\sprint_ressources\sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC4B321-3845-4A07-BA8B-4AA6F7D71D89}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B9735A-01FA-478C-B905-A0008ED58F0E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" xr2:uid="{B8C45E3C-A5E8-4810-8F01-635312651EC4}"/>
   </bookViews>
@@ -170,9 +170,6 @@
 - Bestätigung an den User</t>
   </si>
   <si>
-    <t>Der User hat die Option eine Kategorie aus der vorhandenen Kategorieliste zu wählen.</t>
-  </si>
-  <si>
     <t>Der User hat in der Andwendung "Rezept auswählen" die Prozedur gewählt.</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   <si>
     <t>- Vorlesen der jetzigen Wartezeit
 - Bestätigung an den User</t>
+  </si>
+  <si>
+    <t>Der User hat die Option ein Rezept aus der vorhandenen Favoritenliste zu wählen.</t>
   </si>
 </sst>
 </file>
@@ -370,9 +370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -393,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,14 +710,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640AE7FF-8B24-428C-A3B5-BECEA8B0275C}">
   <dimension ref="A2:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="D38:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
@@ -727,897 +727,901 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="D38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="J38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="D39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="D40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="D41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="D42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="D43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="D44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="D45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="D46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="D47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="D48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="J48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B58" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B59" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B60" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B62" s="10"/>
+      <c r="D62" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="G62" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="B63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="D64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B65" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="B66" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="B67" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="D68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="B69" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B70" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="G70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B71" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B72" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="B74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="B75" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="B77" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="B78" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="B79" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="B81" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="B82" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="B83" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="D38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="J38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="D39" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
-      <c r="D40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="D41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
-      <c r="D42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="D43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
-      <c r="D44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="D45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="D46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
-      <c r="D47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="10"/>
-      <c r="D48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="D62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="G62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="J38:K38"/>
@@ -1625,10 +1629,6 @@
     <mergeCell ref="A62:B62"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="G62:H62"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1650,10 +1650,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
